--- a/26. Recherche opérationnelle en Excel/33 - MULTIPLES - JOB SHOP SUR 2 MACHINES ET VOYAGEUR DE COMMERCE/02- Traduction - legende - gantt .xlsx
+++ b/26. Recherche opérationnelle en Excel/33 - MULTIPLES - JOB SHOP SUR 2 MACHINES ET VOYAGEUR DE COMMERCE/02- Traduction - legende - gantt .xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estelle\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\python-data-science2\26. Recherche opérationnelle en Excel\33 - MULTIPLES - JOB SHOP SUR 2 MACHINES ET VOYAGEUR DE COMMERCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="72" windowWidth="20112" windowHeight="7992"/>
   </bookViews>
   <sheets>
-    <sheet name="JOB SHOP MACHINES MULTIPLES" sheetId="2" r:id="rId1"/>
+    <sheet name="JOB SHOP MACHINES MULTIPLES " sheetId="2" r:id="rId1"/>
     <sheet name="Index Function" sheetId="3" r:id="rId2"/>
     <sheet name="Case 1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'Case 1'!$P$3:$P$13</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'JOB SHOP MACHINES MULTIPLES'!$G$3:$G$8</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'JOB SHOP MACHINES MULTIPLES '!$G$3:$G$8</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
@@ -30,15 +30,15 @@
     <definedName name="solver_itr" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Case 1'!$P$3:$P$13</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'JOB SHOP MACHINES MULTIPLES'!$G$3:$G$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'JOB SHOP MACHINES MULTIPLES '!$G$3:$G$8</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Case 1'!$P$3:$P$13</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'JOB SHOP MACHINES MULTIPLES'!$G$3:$G$8</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'JOB SHOP MACHINES MULTIPLES '!$G$3:$G$8</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Case 1'!$P$3:$P$13</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'JOB SHOP MACHINES MULTIPLES'!$G$3:$G$8</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'JOB SHOP MACHINES MULTIPLES '!$G$3:$G$8</definedName>
     <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Case 1'!$P$3:$P$13</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'JOB SHOP MACHINES MULTIPLES'!$G$3:$G$8</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'JOB SHOP MACHINES MULTIPLES '!$G$3:$G$8</definedName>
     <definedName name="solver_lhs5" localSheetId="2" hidden="1">'Case 1'!$P$3:$P$13</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'JOB SHOP MACHINES MULTIPLES'!$I$3:$I$8</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'JOB SHOP MACHINES MULTIPLES '!$I$3:$I$8</definedName>
     <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
@@ -58,7 +58,7 @@
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'Case 1'!$Q$14</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'JOB SHOP MACHINES MULTIPLES'!$G$9</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'JOB SHOP MACHINES MULTIPLES '!$G$9</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
@@ -82,7 +82,7 @@
     <definedName name="solver_rhs4" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs5" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'JOB SHOP MACHINES MULTIPLES'!$K$3:$K$8</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'JOB SHOP MACHINES MULTIPLES '!$K$3:$K$8</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>Boston</t>
   </si>
@@ -278,6 +278,12 @@
   </si>
   <si>
     <t>Légende :</t>
+  </si>
+  <si>
+    <t>On voit les résultats s'afficher dans la colonne en vert ( les variables de décision)</t>
+  </si>
+  <si>
+    <t>Inspiré de la gestion de projet</t>
   </si>
 </sst>
 </file>
@@ -665,6 +671,157 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10210800" y="228600"/>
+          <a:ext cx="3192780" cy="2583180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Attention, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ce</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> premier "job Shop' machine multiple est traité </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>à la façon ' Gestion de projet.'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Le P.L de Job Shop machine multiples habituel n'est pas modélisé comme ça et est décrit ici : </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>https://developers.google.com/optimization/scheduling/job_shop</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Je recherche si on peut le trouver au format Excel,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> ou le modéliser soit même...</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -957,12 +1114,12 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
     <col min="2" max="2" width="5.21875" style="12" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="4" max="5" width="13.109375" customWidth="1"/>
@@ -989,8 +1146,8 @@
       <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="43" t="s">
-        <v>53</v>
+      <c r="A2" t="s">
+        <v>56</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>16</v>
@@ -1050,6 +1207,9 @@
       </c>
     </row>
     <row r="4" spans="1:11">
+      <c r="A4" s="43" t="s">
+        <v>53</v>
+      </c>
       <c r="B4" s="16">
         <v>2</v>
       </c>
@@ -1276,6 +1436,11 @@
       <c r="B17"/>
       <c r="E17" s="22"/>
       <c r="J17"/>
+    </row>
+    <row r="18" spans="1:36">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="46" t="s">
@@ -1725,6 +1890,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
